--- a/Edo-common-main/Assets/Database/0_Common/ConstFloat/list_constFloat.xlsx
+++ b/Edo-common-main/Assets/Database/0_Common/ConstFloat/list_constFloat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Projects\Edo-common\Assets\Database\0_Common\ConstFloat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koumori0\Edo-common-main\Edo-common-main\Assets\Database\0_Common\ConstFloat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF23F48-D330-4265-903A-33C09AB677B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7499EB-D136-4CAE-AE29-8D8264A7C844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -710,10 +710,10 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
@@ -799,7 +799,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>10010</v>
+        <v>100010</v>
       </c>
     </row>
     <row r="8" spans="1:3">
